--- a/data/trans_dic/P41E_2023_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P41E_2023_R-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03801538015124846</v>
+        <v>0.03811228818878746</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04328029334229687</v>
+        <v>0.04304823957416534</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04508573927065584</v>
+        <v>0.0465546368188231</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08471904703558476</v>
+        <v>0.08365347360298886</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09303911673032572</v>
+        <v>0.09550543426965762</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07845907096203107</v>
+        <v>0.07866179308811307</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.0654653908257317</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.08693027094434867</v>
+        <v>0.08693027094434866</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07402626467324507</v>
+        <v>0.07246292149494653</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04038919522142358</v>
+        <v>0.04116869861834047</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06656081054749449</v>
+        <v>0.06482301323296635</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1431698428311493</v>
+        <v>0.143528912212778</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09740700214996478</v>
+        <v>0.1003061247188736</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1107747902266311</v>
+        <v>0.1121832585155716</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.1774094341801873</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1454059971552533</v>
+        <v>0.1454059971552532</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1001442338367621</v>
+        <v>0.09823785030742729</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.119052384864357</v>
+        <v>0.1202542460426566</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1149783517990189</v>
+        <v>0.1145104988386913</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1792576446866106</v>
+        <v>0.173562873294511</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2536981392088663</v>
+        <v>0.2475374322055882</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1788008679826387</v>
+        <v>0.1820580881991235</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.124865862164672</v>
+        <v>0.1248658621646719</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.07516371443638944</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1020105876687697</v>
+        <v>0.1002051404991067</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05646982338017462</v>
+        <v>0.05410378128497557</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08703913509503697</v>
+        <v>0.08728301157248476</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1529896409150453</v>
+        <v>0.1521719682502808</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09974042777399499</v>
+        <v>0.09887207507233989</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1215270345192528</v>
+        <v>0.121801370343302</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1466962055783028</v>
+        <v>0.1466962055783029</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1758805005442077</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1641067438444452</v>
+        <v>0.1641067438444451</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1109999693953434</v>
+        <v>0.112353526648565</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1487948100525568</v>
+        <v>0.1496882024707019</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.142093193404033</v>
+        <v>0.1408711584575901</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1859362774085775</v>
+        <v>0.1899647299332851</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2118347348548432</v>
+        <v>0.2092869136030697</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1883429571270533</v>
+        <v>0.1903078790591654</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03172074563701278</v>
+        <v>0.03231214608108571</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1735294408064168</v>
+        <v>0.1750170162022955</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.160019043429445</v>
+        <v>0.1645050558577902</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2793591310381326</v>
+        <v>0.2912986347952768</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2583879651904676</v>
+        <v>0.2555503391240983</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2413269880773454</v>
+        <v>0.244368074006767</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1014502010353108</v>
+        <v>0.09931467934456968</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1147018287518459</v>
+        <v>0.1133824890185337</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1109203042469175</v>
+        <v>0.1107872100912877</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1291125763546268</v>
+        <v>0.1279321216420838</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1402962897022807</v>
+        <v>0.1413098704685243</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1299130497443357</v>
+        <v>0.1302146653007559</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11710</v>
+        <v>11740</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10352</v>
+        <v>10296</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>24671</v>
+        <v>25475</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26096</v>
+        <v>25768</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22253</v>
+        <v>22843</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>42934</v>
+        <v>43044</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18645</v>
+        <v>18251</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8501</v>
+        <v>8665</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>30773</v>
+        <v>29970</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>36060</v>
+        <v>36150</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20501</v>
+        <v>21111</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>51215</v>
+        <v>51866</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>25127</v>
+        <v>24648</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10685</v>
+        <v>10793</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>39168</v>
+        <v>39008</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>44976</v>
+        <v>43548</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22769</v>
+        <v>22216</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>60909</v>
+        <v>62018</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>53066</v>
+        <v>52127</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>22343</v>
+        <v>21407</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>79717</v>
+        <v>79940</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>79586</v>
+        <v>79160</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>39464</v>
+        <v>39121</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>111303</v>
+        <v>111554</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>28250</v>
+        <v>28595</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>55999</v>
+        <v>56335</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>89641</v>
+        <v>88870</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>47322</v>
+        <v>48347</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>79724</v>
+        <v>78766</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>118818</v>
+        <v>120057</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1439</v>
+        <v>1465</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>48512</v>
+        <v>48928</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>51992</v>
+        <v>53450</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12669</v>
+        <v>13210</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>72235</v>
+        <v>71442</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>78410</v>
+        <v>79398</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>165451</v>
+        <v>161968</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>182488</v>
+        <v>180389</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>357367</v>
+        <v>356938</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>210564</v>
+        <v>208639</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>223209</v>
+        <v>224821</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>418559</v>
+        <v>419530</v>
       </c>
     </row>
     <row r="32">
